--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:36:44+01:00</t>
+    <t>2024-03-25T12:26:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Oxygen saturation in Arterial blood  | Saturation en oxygène du sang artériel</t>
+    <t>Oxygen saturation in Arterial blood. Saturation en oxygène du sang artériel</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-saturation-oxygen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="684">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -663,10 +663,6 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -4792,7 +4788,7 @@
         <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>124</v>
@@ -4818,10 +4814,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4847,16 +4843,16 @@
         <v>116</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>119</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>84</v>
@@ -4905,7 +4901,7 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4940,10 +4936,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4966,17 +4962,17 @@
         <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>84</v>
@@ -5025,7 +5021,7 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -5040,19 +5036,19 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>84</v>
@@ -5060,14 +5056,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5086,17 +5082,17 @@
         <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>84</v>
@@ -5145,7 +5141,7 @@
         <v>84</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
@@ -5160,16 +5156,16 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>84</v>
@@ -5180,14 +5176,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5206,16 +5202,16 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5265,7 +5261,7 @@
         <v>84</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -5280,16 +5276,16 @@
         <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>84</v>
@@ -5300,10 +5296,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5418,10 +5414,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5538,10 +5534,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5567,13 +5563,13 @@
         <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5623,7 +5619,7 @@
         <v>84</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -5632,7 +5628,7 @@
         <v>95</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>107</v>
@@ -5658,10 +5654,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5687,13 +5683,13 @@
         <v>137</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5722,28 +5718,28 @@
         <v>157</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -5778,10 +5774,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5804,16 +5800,16 @@
         <v>96</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5863,7 +5859,7 @@
         <v>84</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -5887,7 +5883,7 @@
         <v>84</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>84</v>
@@ -5898,10 +5894,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5927,13 +5923,13 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5983,7 +5979,7 @@
         <v>84</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -6018,10 +6014,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6047,16 +6043,16 @@
         <v>175</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>84</v>
@@ -6081,11 +6077,11 @@
         <v>84</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>84</v>
@@ -6103,7 +6099,7 @@
         <v>84</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>95</v>
@@ -6118,19 +6114,19 @@
         <v>107</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>84</v>
@@ -6138,10 +6134,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6164,19 +6160,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>84</v>
@@ -6204,16 +6200,16 @@
         <v>179</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -6223,7 +6219,7 @@
         <v>122</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -6247,10 +6243,10 @@
         <v>84</v>
       </c>
       <c r="AN31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>84</v>
@@ -6258,13 +6254,13 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>84</v>
@@ -6286,19 +6282,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>84</v>
@@ -6326,11 +6322,11 @@
         <v>179</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>84</v>
       </c>
@@ -6347,7 +6343,7 @@
         <v>84</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -6371,10 +6367,10 @@
         <v>84</v>
       </c>
       <c r="AN32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>84</v>
@@ -6382,10 +6378,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6500,10 +6496,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6620,10 +6616,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6649,16 +6645,16 @@
         <v>153</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>84</v>
@@ -6707,7 +6703,7 @@
         <v>84</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6728,10 +6724,10 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>84</v>
@@ -6742,10 +6738,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6860,10 +6856,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6980,10 +6976,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7009,65 +7005,65 @@
         <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -7088,10 +7084,10 @@
         <v>84</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>84</v>
@@ -7102,10 +7098,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7131,13 +7127,13 @@
         <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7187,7 +7183,7 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -7208,10 +7204,10 @@
         <v>84</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>84</v>
@@ -7222,10 +7218,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7251,63 +7247,63 @@
         <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -7328,10 +7324,10 @@
         <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>84</v>
@@ -7342,10 +7338,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7371,14 +7367,14 @@
         <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>84</v>
@@ -7427,7 +7423,7 @@
         <v>84</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7448,10 +7444,10 @@
         <v>84</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>84</v>
@@ -7462,10 +7458,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7488,19 +7484,19 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -7549,7 +7545,7 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7570,10 +7566,10 @@
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>84</v>
@@ -7584,10 +7580,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7613,16 +7609,16 @@
         <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>84</v>
@@ -7671,7 +7667,7 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7692,10 +7688,10 @@
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>84</v>
@@ -7706,14 +7702,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7732,19 +7728,19 @@
         <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>84</v>
@@ -7772,11 +7768,11 @@
         <v>157</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>84</v>
       </c>
@@ -7793,7 +7789,7 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>95</v>
@@ -7808,30 +7804,30 @@
         <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AO44" t="s" s="2">
+      <c r="AP44" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7946,10 +7942,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8066,10 +8062,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8095,16 +8091,16 @@
         <v>153</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>84</v>
@@ -8141,7 +8137,7 @@
         <v>84</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
@@ -8151,7 +8147,7 @@
         <v>122</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8172,10 +8168,10 @@
         <v>84</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>84</v>
@@ -8186,13 +8182,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>84</v>
@@ -8217,16 +8213,16 @@
         <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>84</v>
@@ -8275,7 +8271,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8296,10 +8292,10 @@
         <v>84</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>84</v>
@@ -8310,10 +8306,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8428,10 +8424,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8548,10 +8544,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8577,23 +8573,23 @@
         <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>84</v>
@@ -8635,7 +8631,7 @@
         <v>84</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8656,10 +8652,10 @@
         <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>84</v>
@@ -8670,10 +8666,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8699,13 +8695,13 @@
         <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8755,7 +8751,7 @@
         <v>84</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8776,10 +8772,10 @@
         <v>84</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>84</v>
@@ -8790,10 +8786,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8819,21 +8815,21 @@
         <v>175</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>84</v>
@@ -8875,7 +8871,7 @@
         <v>84</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8896,10 +8892,10 @@
         <v>84</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>84</v>
@@ -8910,10 +8906,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8939,14 +8935,14 @@
         <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>84</v>
@@ -8995,7 +8991,7 @@
         <v>84</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -9016,10 +9012,10 @@
         <v>84</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>84</v>
@@ -9030,10 +9026,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9056,19 +9052,19 @@
         <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>84</v>
@@ -9117,7 +9113,7 @@
         <v>84</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -9138,10 +9134,10 @@
         <v>84</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>84</v>
@@ -9152,10 +9148,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9181,16 +9177,16 @@
         <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>84</v>
@@ -9239,7 +9235,7 @@
         <v>84</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
@@ -9260,10 +9256,10 @@
         <v>84</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>84</v>
@@ -9274,10 +9270,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9300,19 +9296,19 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>84</v>
@@ -9361,7 +9357,7 @@
         <v>84</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9376,19 +9372,19 @@
         <v>107</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>84</v>
@@ -9396,10 +9392,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9422,16 +9418,16 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9481,7 +9477,7 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9502,13 +9498,13 @@
         <v>84</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>84</v>
@@ -9516,14 +9512,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9542,19 +9538,19 @@
         <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>84</v>
@@ -9603,7 +9599,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9618,19 +9614,19 @@
         <v>107</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>84</v>
@@ -9638,14 +9634,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9664,19 +9660,19 @@
         <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>84</v>
@@ -9725,7 +9721,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9734,25 +9730,25 @@
         <v>95</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>84</v>
@@ -9760,10 +9756,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9789,13 +9785,13 @@
         <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9845,7 +9841,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -9866,13 +9862,13 @@
         <v>84</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>84</v>
@@ -9880,10 +9876,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9906,17 +9902,17 @@
         <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>84</v>
@@ -9965,7 +9961,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -9980,19 +9976,19 @@
         <v>107</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>84</v>
@@ -10000,10 +9996,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10026,19 +10022,19 @@
         <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>84</v>
@@ -10075,17 +10071,17 @@
         <v>84</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10094,7 +10090,7 @@
         <v>95</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>107</v>
@@ -10103,30 +10099,30 @@
         <v>84</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>84</v>
@@ -10148,19 +10144,19 @@
         <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>84</v>
@@ -10209,7 +10205,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10218,7 +10214,7 @@
         <v>95</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>107</v>
@@ -10227,27 +10223,27 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10362,10 +10358,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10482,10 +10478,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10508,19 +10504,19 @@
         <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>84</v>
@@ -10569,7 +10565,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10590,10 +10586,10 @@
         <v>84</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>84</v>
@@ -10604,10 +10600,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10633,65 +10629,65 @@
         <v>175</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q68" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="P68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q68" t="s" s="2">
+      <c r="R68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="R68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Z68" t="s" s="2">
+      <c r="AA68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10712,10 +10708,10 @@
         <v>84</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>84</v>
@@ -10726,10 +10722,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10755,14 +10751,14 @@
         <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>84</v>
@@ -10811,7 +10807,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -10832,10 +10828,10 @@
         <v>84</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>84</v>
@@ -10846,10 +10842,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10875,63 +10871,63 @@
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -10940,7 +10936,7 @@
         <v>95</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>107</v>
@@ -10952,10 +10948,10 @@
         <v>84</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>84</v>
@@ -10966,10 +10962,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10995,65 +10991,65 @@
         <v>175</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11074,10 +11070,10 @@
         <v>84</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>84</v>
@@ -11088,10 +11084,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11114,19 +11110,19 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>84</v>
@@ -11154,11 +11150,11 @@
         <v>157</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>526</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>84</v>
       </c>
@@ -11175,7 +11171,7 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11184,7 +11180,7 @@
         <v>95</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>107</v>
@@ -11199,7 +11195,7 @@
         <v>198</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>84</v>
@@ -11210,14 +11206,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11236,19 +11232,19 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>84</v>
@@ -11276,11 +11272,11 @@
         <v>157</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>84</v>
       </c>
@@ -11297,7 +11293,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11315,27 +11311,27 @@
         <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11358,19 +11354,19 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>84</v>
@@ -11419,7 +11415,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11440,10 +11436,10 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -11454,10 +11450,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11480,16 +11476,16 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11519,7 +11515,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>84</v>
@@ -11537,7 +11533,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11555,27 +11551,27 @@
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>557</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11598,19 +11594,19 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>84</v>
@@ -11638,11 +11634,11 @@
         <v>165</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>84</v>
       </c>
@@ -11659,7 +11655,7 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -11680,10 +11676,10 @@
         <v>84</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>84</v>
@@ -11694,10 +11690,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11720,16 +11716,16 @@
         <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11779,7 +11775,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -11797,27 +11793,27 @@
         <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AO77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP77" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>575</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11840,16 +11836,16 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11899,7 +11895,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -11917,27 +11913,27 @@
         <v>84</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP78" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>584</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11960,19 +11956,19 @@
         <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>84</v>
@@ -12021,7 +12017,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12033,19 +12029,19 @@
         <v>84</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="AK79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
@@ -12056,10 +12052,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12174,10 +12170,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12294,14 +12290,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12323,16 +12319,16 @@
         <v>116</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>119</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12381,7 +12377,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12416,10 +12412,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12442,13 +12438,13 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12499,7 +12495,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12508,7 +12504,7 @@
         <v>95</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>107</v>
@@ -12520,10 +12516,10 @@
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -12534,10 +12530,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12560,13 +12556,13 @@
         <v>84</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12617,7 +12613,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12626,7 +12622,7 @@
         <v>95</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>107</v>
@@ -12638,10 +12634,10 @@
         <v>84</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
@@ -12652,10 +12648,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12678,19 +12674,19 @@
         <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -12718,11 +12714,11 @@
         <v>179</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>618</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
       </c>
@@ -12739,7 +12735,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12757,13 +12753,13 @@
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="AM85" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="AN85" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
@@ -12774,10 +12770,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12800,19 +12796,19 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>84</v>
@@ -12840,11 +12836,11 @@
         <v>165</v>
       </c>
       <c r="Y86" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="Z86" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="Z86" t="s" s="2">
-        <v>627</v>
-      </c>
       <c r="AA86" t="s" s="2">
         <v>84</v>
       </c>
@@ -12861,7 +12857,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12879,13 +12875,13 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="AM86" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="AN86" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
@@ -12896,10 +12892,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12922,17 +12918,17 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>84</v>
@@ -12981,7 +12977,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13005,7 +13001,7 @@
         <v>84</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
@@ -13016,10 +13012,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13045,10 +13041,10 @@
         <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13099,7 +13095,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13120,10 +13116,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13134,10 +13130,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13160,16 +13156,16 @@
         <v>96</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13219,7 +13215,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13240,10 +13236,10 @@
         <v>84</v>
       </c>
       <c r="AM89" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>84</v>
@@ -13254,10 +13250,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13280,16 +13276,16 @@
         <v>96</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13339,7 +13335,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -13360,10 +13356,10 @@
         <v>84</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>84</v>
@@ -13374,10 +13370,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13400,19 +13396,19 @@
         <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
@@ -13461,7 +13457,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13473,19 +13469,19 @@
         <v>84</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="AK91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>84</v>
@@ -13496,10 +13492,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13614,10 +13610,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13734,14 +13730,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13763,16 +13759,16 @@
         <v>116</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>119</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13821,7 +13817,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13856,10 +13852,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13882,19 +13878,19 @@
         <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13922,11 +13918,11 @@
         <v>157</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
       </c>
@@ -13943,7 +13939,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>95</v>
@@ -13961,16 +13957,16 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>84</v>
@@ -13978,10 +13974,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14004,19 +14000,19 @@
         <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="N96" t="s" s="2">
-        <v>671</v>
-      </c>
       <c r="O96" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -14041,14 +14037,14 @@
         <v>84</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Z96" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Z96" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="AA96" t="s" s="2">
         <v>84</v>
       </c>
@@ -14065,7 +14061,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14074,7 +14070,7 @@
         <v>95</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>107</v>
@@ -14083,27 +14079,27 @@
         <v>84</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14126,19 +14122,19 @@
         <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="N97" t="s" s="2">
-        <v>679</v>
-      </c>
       <c r="O97" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>84</v>
@@ -14166,11 +14162,11 @@
         <v>157</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z97" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Z97" t="s" s="2">
-        <v>526</v>
-      </c>
       <c r="AA97" t="s" s="2">
         <v>84</v>
       </c>
@@ -14187,7 +14183,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14196,7 +14192,7 @@
         <v>95</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>107</v>
@@ -14211,7 +14207,7 @@
         <v>198</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14222,14 +14218,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14248,19 +14244,19 @@
         <v>84</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>84</v>
@@ -14288,11 +14284,11 @@
         <v>157</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z98" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z98" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA98" t="s" s="2">
         <v>84</v>
       </c>
@@ -14309,7 +14305,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14327,27 +14323,27 @@
         <v>84</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AN98" t="s" s="2">
+      <c r="AO98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP98" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14373,16 +14369,16 @@
         <v>85</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="N99" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O99" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>84</v>
@@ -14431,7 +14427,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14452,10 +14448,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
